--- a/Config/app/static/resources/municipioss.xlsx
+++ b/Config/app/static/resources/municipioss.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz Sena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz Sena\Documents\GitHub\Adso\Config\app\static\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636283D2-0DE7-4C33-ABA7-18ADAD77FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903C65A-591E-4E95-A5A0-CBEFCBA395FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BF938A7-6BD2-4C53-9F17-EDA637B44989}"/>
   </bookViews>
@@ -5114,7 +5114,7 @@
   <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
